--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Họ tên</t>
   </si>
@@ -32,34 +32,43 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">Phạm Thành  Hậu</t>
-  </si>
-  <si>
-    <t>1@gmail.com</t>
+    <t xml:space="preserve">pham thanh  hau</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>13:59:30 17/06/2023</t>
+  </si>
+  <si>
+    <t>13:56:00 18/06/2023</t>
+  </si>
+  <si>
+    <t>Đã nộp</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>18:27:00 18/03/2023</t>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>14:09:14 17/06/2023</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
   </si>
   <si>
     <t>Chưa Nộp</t>
   </si>
   <si>
-    <t>2@gmail.com</t>
-  </si>
-  <si>
-    <t>3@gmail.com</t>
-  </si>
-  <si>
-    <t>4@gmail.com</t>
-  </si>
-  <si>
     <t>5@gmail.com</t>
   </si>
   <si>
     <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -134,9 +143,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5128917694092" customWidth="1"/>
+    <col min="1" max="1" width="22.7554492950439" customWidth="1"/>
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
-    <col min="3" max="3" width="13.1066436767578" customWidth="1"/>
+    <col min="3" max="3" width="28.1006889343262" customWidth="1"/>
     <col min="4" max="4" width="28.1006889343262" customWidth="1"/>
     <col min="5" max="5" width="13.9027738571167" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -175,11 +184,11 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -187,19 +196,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -207,19 +216,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -227,19 +236,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -247,19 +256,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -267,19 +276,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Họ tên</t>
   </si>
@@ -47,16 +47,22 @@
     <t>Đã nộp</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>14:09:14 17/06/2023</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>3@gmail.com</t>
-  </si>
-  <si>
-    <t>14:09:14 17/06/2023</t>
-  </si>
-  <si>
-    <t>4@gmail.com</t>
   </si>
   <si>
     <t>Chưa Nộp</t>
@@ -208,7 +214,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -216,19 +222,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -236,19 +242,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -256,19 +262,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -276,19 +282,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Họ tên</t>
   </si>
@@ -62,16 +62,25 @@
     <t>4@gmail.com</t>
   </si>
   <si>
+    <t>16:50:57 23/06/2023</t>
+  </si>
+  <si>
+    <t>Nộp muộn</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>16:55:17 23/06/2023</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
     <t>Chưa Nộp</t>
-  </si>
-  <si>
-    <t>5@gmail.com</t>
-  </si>
-  <si>
-    <t>6@gmail.com</t>
   </si>
   <si>
     <t>7@gmail.com</t>
@@ -153,7 +162,7 @@
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="28.1006889343262" customWidth="1"/>
     <col min="4" max="4" width="28.1006889343262" customWidth="1"/>
-    <col min="5" max="5" width="13.9027738571167" customWidth="1"/>
+    <col min="5" max="5" width="14.5158700942993" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -234,7 +243,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -242,10 +251,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -254,7 +263,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -262,19 +271,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -282,19 +291,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Họ tên</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">pham thanh  hau</t>
+    <t>Nguyễn Văn Kha</t>
   </si>
   <si>
     <t>2@gmail.com</t>
@@ -41,7 +41,7 @@
     <t>13:59:30 17/06/2023</t>
   </si>
   <si>
-    <t>13:56:00 18/06/2023</t>
+    <t>01:56:00 18/06/2023</t>
   </si>
   <si>
     <t>Đã nộp</t>
@@ -50,6 +50,39 @@
     <t>88</t>
   </si>
   <si>
+    <t>Nguyễn Văn Phụng</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>16:55:17 23/06/2023</t>
+  </si>
+  <si>
+    <t>Nộp muộn</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sang</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>Chưa Nộp</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sương</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thế</t>
+  </si>
+  <si>
     <t>3@gmail.com</t>
   </si>
   <si>
@@ -59,31 +92,13 @@
     <t>0</t>
   </si>
   <si>
+    <t>Nguyễn Văn Việt</t>
+  </si>
+  <si>
     <t>4@gmail.com</t>
   </si>
   <si>
     <t>16:50:57 23/06/2023</t>
-  </si>
-  <si>
-    <t>Nộp muộn</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5@gmail.com</t>
-  </si>
-  <si>
-    <t>16:55:17 23/06/2023</t>
-  </si>
-  <si>
-    <t>6@gmail.com</t>
-  </si>
-  <si>
-    <t>Chưa Nộp</t>
-  </si>
-  <si>
-    <t>7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7554492950439" customWidth="1"/>
+    <col min="1" max="1" width="25.4295558929443" customWidth="1"/>
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="28.1006889343262" customWidth="1"/>
     <col min="4" max="4" width="28.1006889343262" customWidth="1"/>
@@ -208,30 +223,30 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -240,70 +255,70 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
